--- a/uploads/template/excel_xuat_lich.xlsx
+++ b/uploads/template/excel_xuat_lich.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\export-service\uploads\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkData\XLSX-Template-nunjuck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A9D110-50E7-466A-B1DB-3F9357BA8C01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD52A5-0D59-49A6-8B58-B29A4EC644BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34452" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>LỊCH CÔNG TÁC CỦA LÃNH ĐẠO TỔNG CỤC</t>
-  </si>
-  <si>
-    <t>NGÀY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <r>
       <t xml:space="preserve">Tuần thứ </t>
@@ -43,27 +37,65 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>14 (Từ ngày 04/04/2022 đến ngày 10/04/2022</t>
+      <t>{{currentWeek}} (Từ ngày {{weekStart}} đến ngày {{weekEnd}}</t>
     </r>
   </si>
   <si>
-    <t>NỘI DUNG</t>
-  </si>
-  <si>
-    <t>{{data1.noiDung}}</t>
-  </si>
-  <si>
-    <t>{% endfor %}</t>
-  </si>
-  <si>
-    <t>{% for row in data %}{{row.cotNgay}}</t>
+    <t>SÁNG</t>
+  </si>
+  <si>
+    <t>LỊCH CÔNG TÁC CỦA LÃNH ĐẠO CỤC</t>
+  </si>
+  <si>
+    <t>CHIỀU</t>
+  </si>
+  <si>
+    <t>NGÀY,
+THÁNG</t>
+  </si>
+  <si>
+    <t>{% for row2 in row.LichChieu %}{{row2._source.LichNgayExcelGio}}
+{{row2._source.NoiDungLich}}, tại địa chỉ {{row2._source.DiaDiem}} ({% for lanhdao in row2._source.LanhDaoThamDu %}{{lanhdao._source.HoVaTen}}, {% endfor %}. chuẩn bị {% for donvichuanbi in row2._source.DonViChuanBi %}{{donvichuanbi._source.TenGoi}}, {% endfor %}, {{row2._source.ChuanBiNoiDung}})
+{% endfor %}</t>
+  </si>
+  <si>
+    <t>{% for row in data %}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{{row._source.LichNgayExcelThu}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+{{row._source.LichNgayExcelNgay}}</t>
+    </r>
+  </si>
+  <si>
+    <t>{%endfor%}</t>
+  </si>
+  <si>
+    <t>{% for row2 in row.LichSang %}{{row2._source.LichNgayExcelGio}}{{row2._source.NoiDungLich}}, tại địa chỉ {{row2._source.DiaDiem}} ({% for lanhdao in row2._source.LanhDaoThamDu %}{{lanhdao._source.HoVaTen}}, {% endfor %}. chuẩn bị {% for donvichuanbi in row2._source.DonViChuanBi %}{{donvichuanbi._source.TenGoi}}, {% endfor %}, {{row2._source.ChuanBiNoiDung}})
+{% endfor %}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +122,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,31 +161,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -470,53 +533,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.69140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="70.69140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.84375" style="2"/>
+    <col min="1" max="1" width="16.84375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.15234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.84375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="4"/>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="65.150000000000006" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
